--- a/src/test/resources/testdata/SalesforceUseCaseTestDataPP.xlsx
+++ b/src/test/resources/testdata/SalesforceUseCaseTestDataPP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login Details" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
   <si>
     <t>Username</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>testDealerGrp</t>
+  </si>
+  <si>
+    <t>Trader123</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -996,7 +999,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1014,7 +1017,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1369,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1445,7 +1448,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>62</v>
@@ -1514,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B14"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata/SalesforceUseCaseTestDataPP.xlsx
+++ b/src/test/resources/testdata/SalesforceUseCaseTestDataPP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login Details" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
   <si>
     <t>Username</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>Trader123</t>
+  </si>
+  <si>
+    <t>salestest1@cae.cae.preprod</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="126">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -539,6 +542,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -558,7 +562,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="126">
+  <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -624,6 +628,7 @@
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -988,7 +993,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -999,7 +1004,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1012,15 +1017,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28">
+    <row r="2" spans="1:2" ht="42">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1372,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1445,7 +1453,7 @@
     </row>
     <row r="2" spans="1:19" ht="42">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>114</v>
@@ -1503,6 +1511,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1517,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/src/test/resources/testdata/SalesforceUseCaseTestDataPP.xlsx
+++ b/src/test/resources/testdata/SalesforceUseCaseTestDataPP.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
   <si>
     <t>Username</t>
   </si>
@@ -373,13 +373,31 @@
   </si>
   <si>
     <t>salestest1@cae.cae.preprod</t>
+  </si>
+  <si>
+    <t>Reed, Carolyn</t>
+  </si>
+  <si>
+    <t>Rewards Admin</t>
+  </si>
+  <si>
+    <t>Jolitz, Maggie</t>
+  </si>
+  <si>
+    <t>Business Admin:</t>
+  </si>
+  <si>
+    <t>Lichtenberger, Lydia</t>
+  </si>
+  <si>
+    <t>CAI Admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +417,13 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -550,7 +575,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -559,6 +584,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -993,7 +1022,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1526,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1554,6 +1583,30 @@
         <v>111</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/test/resources/testdata/SalesforceUseCaseTestDataPP.xlsx
+++ b/src/test/resources/testdata/SalesforceUseCaseTestDataPP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login Details" sheetId="4" r:id="rId1"/>
@@ -446,7 +446,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -567,6 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -591,7 +592,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="128">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -658,6 +659,7 @@
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1022,7 +1024,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1033,7 +1035,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1072,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AP10" sqref="AP10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1557,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata/SalesforceUseCaseTestDataPP.xlsx
+++ b/src/test/resources/testdata/SalesforceUseCaseTestDataPP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Login Details" sheetId="4" r:id="rId1"/>
@@ -207,9 +207,6 @@
     <t>salestest1@cae.cae.qa</t>
   </si>
   <si>
-    <t>CoxAuto123</t>
-  </si>
-  <si>
     <t>Urgent Request</t>
   </si>
   <si>
@@ -391,6 +388,9 @@
   </si>
   <si>
     <t>CAI Admin</t>
+  </si>
+  <si>
+    <t>CoxAuto124</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1024,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1034,7 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="2" spans="1:2" ht="42">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1074,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1139,7 +1139,7 @@
         <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -1154,7 +1154,7 @@
         <v>32</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>33</v>
@@ -1169,7 +1169,7 @@
         <v>43</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>34</v>
@@ -1217,34 +1217,34 @@
         <v>57</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="1" customFormat="1" ht="56">
@@ -1252,7 +1252,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1">
         <v>49898136</v>
@@ -1348,7 +1348,7 @@
         <v>48</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AI2" s="3">
         <v>42818</v>
@@ -1372,25 +1372,25 @@
         <v>56</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AS2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1431,114 +1431,114 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="42">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="R2" s="1">
         <v>30090</v>
       </c>
       <c r="S2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1571,42 +1571,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
         <v>108</v>
-      </c>
-      <c r="B1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28">
       <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/SalesforceUseCaseTestDataPP.xlsx
+++ b/src/test/resources/testdata/SalesforceUseCaseTestDataPP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login Details" sheetId="4" r:id="rId1"/>
@@ -390,7 +390,7 @@
     <t>CAI Admin</t>
   </si>
   <si>
-    <t>CoxAuto124</t>
+    <t>CoxAuto123</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1024,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1034,7 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1074,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata/SalesforceUseCaseTestDataPP.xlsx
+++ b/src/test/resources/testdata/SalesforceUseCaseTestDataPP.xlsx
@@ -446,7 +446,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="128">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -567,6 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -592,7 +593,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="128">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -660,6 +661,7 @@
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1024,7 +1026,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1075,7 +1077,7 @@
   <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/src/test/resources/testdata/SalesforceUseCaseTestDataPP.xlsx
+++ b/src/test/resources/testdata/SalesforceUseCaseTestDataPP.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sprasad5\GITCODE\SFDC-SELENIUM-AUTOMATION\src\test\resources\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login Details" sheetId="4" r:id="rId1"/>
@@ -14,18 +19,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>Username</t>
   </si>
@@ -33,66 +38,21 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Java Test Case</t>
-  </si>
-  <si>
-    <t>ATC Media</t>
-  </si>
-  <si>
-    <t>Java Test Products</t>
-  </si>
-  <si>
-    <t>ATC Price book</t>
-  </si>
-  <si>
-    <t>New Business</t>
-  </si>
-  <si>
-    <t>Prospect</t>
-  </si>
-  <si>
     <t>SVOC Master Id</t>
   </si>
   <si>
     <t>Product Net Billable Amount</t>
   </si>
   <si>
-    <t>Quote Not Priced</t>
-  </si>
-  <si>
     <t>Quote Name</t>
   </si>
   <si>
-    <t>Java Test Quote</t>
-  </si>
-  <si>
-    <t>ALBANY_GA</t>
-  </si>
-  <si>
     <t>Lot Size</t>
   </si>
   <si>
-    <t>Not Applicable</t>
-  </si>
-  <si>
-    <t>Acura</t>
-  </si>
-  <si>
-    <t>Dealer Managed</t>
-  </si>
-  <si>
-    <t>Full Rate</t>
-  </si>
-  <si>
-    <t>Alpha Use Existing</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Brad Weber</t>
-  </si>
-  <si>
     <t>Opportunity Business Unit</t>
   </si>
   <si>
@@ -159,27 +119,9 @@
     <t>Product2 Quantity</t>
   </si>
   <si>
-    <t>Honda</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>AUGUSTA</t>
-  </si>
-  <si>
     <t>Contact Name</t>
   </si>
   <si>
-    <t>Bradley Weber</t>
-  </si>
-  <si>
-    <t>ADP Write Back</t>
-  </si>
-  <si>
-    <t>Labor Time Guides- Honda</t>
-  </si>
-  <si>
     <t>Account Name</t>
   </si>
   <si>
@@ -189,24 +131,12 @@
     <t>Opp Type</t>
   </si>
   <si>
-    <t>Downsell</t>
-  </si>
-  <si>
     <t>Opp Stage</t>
   </si>
   <si>
-    <t>At Risk</t>
-  </si>
-  <si>
     <t>Product3 Name</t>
   </si>
   <si>
-    <t>BHPH Monthly</t>
-  </si>
-  <si>
-    <t>salestest1@cae.cae.qa</t>
-  </si>
-  <si>
     <t>Urgent Request</t>
   </si>
   <si>
@@ -330,24 +260,6 @@
     <t>Notes body</t>
   </si>
   <si>
-    <t>Test Notes Body</t>
-  </si>
-  <si>
-    <t>Test Automation Notes</t>
-  </si>
-  <si>
-    <t>Advertiser</t>
-  </si>
-  <si>
-    <t>Test Weakness</t>
-  </si>
-  <si>
-    <t>Test Strength</t>
-  </si>
-  <si>
-    <t>Test Competitor</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -358,12 +270,6 @@
   </si>
   <si>
     <t>Coordination Desk</t>
-  </si>
-  <si>
-    <t>SAM SWOPE BUICK GMC</t>
-  </si>
-  <si>
-    <t>testDealerGrp</t>
   </si>
   <si>
     <t>Trader123</t>
@@ -396,7 +302,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,16 +483,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1026,7 +929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1040,9 +943,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,12 +953,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="42">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1074,36 +977,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV2"/>
+  <dimension ref="A1:AV1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5" customWidth="1"/>
-    <col min="2" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="16" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="14.1640625" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" customWidth="1"/>
-    <col min="21" max="21" width="7.83203125" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" customWidth="1"/>
-    <col min="45" max="45" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" customWidth="1"/>
+    <col min="21" max="21" width="7.85546875" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" customWidth="1"/>
+    <col min="45" max="45" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="1" customFormat="1" ht="56">
+    <row r="1" spans="1:48" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,294 +1014,145 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="AM1" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" s="1" customFormat="1" ht="56">
-      <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="1">
-        <v>49898136</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>500</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="1">
-        <v>10</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="1">
-        <v>10</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>10</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>42818</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="AH2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
@@ -1417,15 +1171,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="56">
+    <row r="1" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,114 +1187,114 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="42">
-      <c r="A2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="R2" s="1">
         <v>30090</v>
       </c>
       <c r="S2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1565,50 +1319,50 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>116</v>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>118</v>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>120</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
